--- a/modules/microwave_radar/hardware/rev_a/microwave_bom.xlsx
+++ b/modules/microwave_radar/hardware/rev_a/microwave_bom.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="155">
   <si>
     <t xml:space="preserve">Qty</t>
   </si>
@@ -64,250 +64,262 @@
     <t xml:space="preserve">490-8230-1-ND</t>
   </si>
   <si>
+    <t xml:space="preserve">controller</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100nF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C11, C12, C13, C14, C16, C17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">490-10777-1-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">490-13252-1-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7uF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C18, C19, C20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1276-1481-1-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10uF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAPACITOR0805_CAP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0805_CAP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">490-5523-1-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Out of stock: Substituting 1276-2891-1-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22uF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAPACITOR0603_CAP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0603_CAP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1276-1193-1-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100uF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAPACITOR1210_CAP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1210_CAP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">490-3390-1-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33pF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">490-1415-1-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1nF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">490-1494-1-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2nF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C5, C6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">490-11418-1-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3nF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">490-3248-1-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1uF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">490-5920-1-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C9, C10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">490-1532-1-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MODULE_GENERIC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Module header and PCB  guildes for signposts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S9170-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">signpost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC2030-JLINK-L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC2030-IDC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JUMPER-2PTH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1X02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jumper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PINHD-1X8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1X08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JP2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PIN HEADER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2uH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INDUCTORIHL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IHL-1212BZ-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A very specific inductor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">541-1322-1-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22uH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LHQ3NP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LHQ3NP Inductor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">490-5350-1-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FERRITE_BEAD0402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">490-5216-1-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LED0603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LED-0603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LED1, LED2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">led</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RESISTOR0402_RES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0402_RES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R1, R2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resistor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1276-3430-1-ND</t>
+  </si>
+  <si>
     <t xml:space="preserve">yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100nF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C11, C12, C13, C14, C16, C17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">490-10777-1-ND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">490-13252-1-ND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7uF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C18, C19, C20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1276-1481-1-ND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10uF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAPACITOR0805_CAP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0805_CAP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">490-5523-1-ND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Out of stock: Substituting 1276-2891-1-ND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22uF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAPACITOR0603_CAP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0603_CAP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1276-1193-1-ND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100uF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAPACITOR1210_CAP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1210_CAP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">490-3390-1-ND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33pF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">490-1415-1-ND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1nF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">490-1494-1-ND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2nF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C5, C6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">490-11418-1-ND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3nF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">490-3248-1-ND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1uF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">490-5920-1-ND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C9, C10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">490-1532-1-ND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MODULE_GENERIC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Module header and PCB  guildes for signposts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S9170-ND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC2030-JLINK-L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC2030-IDC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JUMPER-2PTH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1X02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jumper</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PINHD-1X8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1X08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JP2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PIN HEADER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2uH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INDUCTORIHL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IHL-1212BZ-11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A very specific inductor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">541-1322-1-ND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22uH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LHQ3NP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LHQ3NP Inductor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">490-5350-1-ND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5k</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FERRITE_BEAD0402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">490-5216-1-ND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LED0603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LED-0603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LED1, LED2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1k</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RESISTOR0402_RES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0402_RES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R1, R2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resistor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1276-3430-1-ND</t>
   </si>
   <si>
     <t xml:space="preserve">100k</t>
@@ -642,21 +654,19 @@
   <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N13" activeCellId="0" sqref="N13"/>
+      <selection pane="topLeft" activeCell="M21" activeCellId="0" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="4.32142857142857"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.765306122449"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.1122448979592"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.765306122449"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="25.9183673469388"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="66.9540816326531"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="20.5204081632653"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="18.4948979591837"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="4.18367346938776"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.4948979591837"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.8418367346939"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.4948979591837"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="25.515306122449"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="66.280612244898"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="20.25"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="18.2244897959184"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1019,7 +1029,7 @@
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1027,16 +1037,16 @@
         <v>1</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1045,21 +1055,21 @@
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1068,21 +1078,21 @@
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1090,22 +1100,22 @@
         <v>1</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1113,22 +1123,22 @@
         <v>1</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D20" s="1" t="n">
         <v>1212</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1" t="s">
@@ -1140,20 +1150,20 @@
         <v>1</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1" t="s">
@@ -1165,24 +1175,24 @@
         <v>2</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1" t="s">
-        <v>14</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1190,26 +1200,26 @@
         <v>2</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1" t="s">
-        <v>14</v>
+        <v>99</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1217,22 +1227,22 @@
         <v>1</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E24" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="F24" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="F24" s="0" t="s">
-        <v>94</v>
-      </c>
       <c r="G24" s="0" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1240,22 +1250,22 @@
         <v>1</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1263,22 +1273,22 @@
         <v>1</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1286,22 +1296,22 @@
         <v>1</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1309,22 +1319,22 @@
         <v>1</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1332,22 +1342,22 @@
         <v>1</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1355,22 +1365,22 @@
         <v>2</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="H30" s="1"/>
       <c r="I30" s="1" t="s">
@@ -1382,22 +1392,22 @@
         <v>1</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1405,22 +1415,22 @@
         <v>6</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="H32" s="1"/>
       <c r="I32" s="1" t="s">
@@ -1432,22 +1442,22 @@
         <v>1</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="1" t="s">
@@ -1459,22 +1469,22 @@
         <v>1</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1482,22 +1492,22 @@
         <v>1</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1505,24 +1515,24 @@
         <v>1</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="F36" s="1"/>
       <c r="G36" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="H36" s="1"/>
       <c r="I36" s="1" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1530,19 +1540,19 @@
         <v>1</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1551,19 +1561,19 @@
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="H38" s="1"/>
       <c r="I38" s="1" t="s">
